--- a/data/case1/15/details_13.xlsx
+++ b/data/case1/15/details_13.xlsx
@@ -63,7 +63,7 @@
     <col min="5" max="5" width="3.140625" customWidth="true"/>
     <col min="6" max="6" width="3.140625" customWidth="true"/>
     <col min="7" max="7" width="2.140625" customWidth="true"/>
-    <col min="8" max="8" width="2.140625" customWidth="true"/>
+    <col min="8" max="8" width="3.140625" customWidth="true"/>
     <col min="9" max="9" width="3.140625" customWidth="true"/>
     <col min="10" max="10" width="3.140625" customWidth="true"/>
     <col min="11" max="11" width="5.7109375" customWidth="true"/>
@@ -80,40 +80,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H1" s="0">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0">
         <v>31</v>
       </c>
       <c r="J1" s="0">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K1" s="0">
-        <v>0.070999999999999994</v>
+        <v>0.010999999999999999</v>
       </c>
       <c r="L1" s="0">
-        <v>0.014999999999999999</v>
+        <v>0.010999999999999999</v>
       </c>
       <c r="M1" s="0">
-        <v>0.0050000000000000001</v>
+        <v>0.028999999999999998</v>
       </c>
       <c r="N1" s="0">
-        <v>0.062</v>
+        <v>0.073999999999999996</v>
       </c>
     </row>
   </sheetData>
